--- a/trainingslager.xlsx
+++ b/trainingslager.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabs/Desktop/Fabian/Fußball/SCSR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabs/Desktop/Fabian/Fußball/SCSR/Trainingslager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1606F2-6E4E-7040-BF44-2B5608B0B1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495CCAF2-5BBE-154E-89D8-3A4F925DA5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="5" xr2:uid="{BE33E2B0-6F17-8A4C-A4AB-1B42C4A25253}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17440" activeTab="5" xr2:uid="{BE33E2B0-6F17-8A4C-A4AB-1B42C4A25253}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle" sheetId="7" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="Tag2" sheetId="4" r:id="rId4"/>
     <sheet name="Punkte_Spiele" sheetId="1" r:id="rId5"/>
     <sheet name="python" sheetId="8" r:id="rId6"/>
+    <sheet name="games" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Tabelle!$C$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tag1'!$A$56:$B$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tag1'!$A$4:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="56">
   <si>
     <t>Bewerb1</t>
   </si>
@@ -195,6 +196,24 @@
   </si>
   <si>
     <t>Bewerb</t>
+  </si>
+  <si>
+    <t>Team Benji</t>
+  </si>
+  <si>
+    <t>Team Kerzig</t>
+  </si>
+  <si>
+    <t>Team Grubi</t>
+  </si>
+  <si>
+    <t>Team Beutl</t>
+  </si>
+  <si>
+    <t>Team Morli</t>
+  </si>
+  <si>
+    <t>Team Chetti</t>
   </si>
 </sst>
 </file>
@@ -204,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +257,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -265,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -288,11 +314,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -309,6 +348,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -646,7 +687,7 @@
   <dimension ref="B3:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,72 +712,72 @@
       <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6" t="e">
         <f>VLOOKUP($C4,Punkte_Spiele!$A$2:$J$8,10,FALSE)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="6" t="e">
         <f>VLOOKUP($C5,Punkte_Spiele!$A$2:$J$8,10,FALSE)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="6" t="e">
         <f>VLOOKUP($C6,Punkte_Spiele!$A$2:$J$8,10,FALSE)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="7" t="e">
         <f>VLOOKUP($C7,Punkte_Spiele!$A$2:$J$8,10,FALSE)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="7" t="e">
         <f>VLOOKUP($C8,Punkte_Spiele!$A$2:$J$8,10,FALSE)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="7" t="e">
         <f>VLOOKUP($C9,Punkte_Spiele!$A$2:$J$8,10,FALSE)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +790,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C398C2-5125-334E-B811-9FC1287E4C1A}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -848,85 +889,91 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.6550925925925926E-3</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="str">
-        <f>A5</f>
-        <v>Team5</v>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.2106481481481482E-3</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f>A6</f>
-        <v>Team4</v>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.3611111111111111E-3</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <f>A7</f>
-        <v>Team2</v>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <f>A8</f>
-        <v>Team3</v>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.8009259259259259E-3</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1" t="str">
-        <f>A9</f>
-        <v>Team1</v>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.8819444444444444E-3</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <f>A10</f>
-        <v>Team6</v>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -965,86 +1012,80 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
+      <c r="A18" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B18" s="2"/>
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="2" t="str">
-        <f>A18</f>
-        <v>Team5</v>
+      <c r="F18" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2"/>
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="1" t="str">
-        <f>A19</f>
-        <v>Team4</v>
+      <c r="F19" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2"/>
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="1" t="str">
-        <f>A20</f>
-        <v>Team2</v>
+      <c r="F20" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2"/>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="1" t="str">
-        <f>A21</f>
-        <v>Team3</v>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2"/>
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="1" t="str">
-        <f>A22</f>
-        <v>Team1</v>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2"/>
       <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="1" t="str">
-        <f>A23</f>
-        <v>Team6</v>
+      <c r="F23" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1090,9 +1131,8 @@
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="2" t="str">
-        <f>A31</f>
-        <v>Team5</v>
+      <c r="F31" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1104,9 +1144,8 @@
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <f>A32</f>
-        <v>Team4</v>
+      <c r="F32" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1118,9 +1157,8 @@
       <c r="E33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <f>A33</f>
-        <v>Team2</v>
+      <c r="F33" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1132,9 +1170,8 @@
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="1" t="str">
-        <f>A34</f>
-        <v>Team3</v>
+      <c r="F34" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1146,9 +1183,8 @@
       <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="1" t="str">
-        <f>A35</f>
-        <v>Team1</v>
+      <c r="F35" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1160,9 +1196,8 @@
       <c r="E36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="1" t="str">
-        <f>A36</f>
-        <v>Team6</v>
+      <c r="F36" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1208,9 +1243,8 @@
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="2" t="str">
-        <f>A44</f>
-        <v>Team5</v>
+      <c r="F44" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1222,9 +1256,8 @@
       <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="1" t="str">
-        <f>A45</f>
-        <v>Team4</v>
+      <c r="F45" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -1236,9 +1269,8 @@
       <c r="E46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="1" t="str">
-        <f>A46</f>
-        <v>Team2</v>
+      <c r="F46" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1250,9 +1282,8 @@
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="1" t="str">
-        <f>A47</f>
-        <v>Team3</v>
+      <c r="F47" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -1264,9 +1295,8 @@
       <c r="E48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="1" t="str">
-        <f>A48</f>
-        <v>Team1</v>
+      <c r="F48" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -1278,9 +1308,8 @@
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="1" t="str">
-        <f>A49</f>
-        <v>Team6</v>
+      <c r="F49" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -1326,9 +1355,8 @@
       <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="2" t="str">
-        <f>A57</f>
-        <v>Team5</v>
+      <c r="F57" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -1340,9 +1368,8 @@
       <c r="E58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="1" t="str">
-        <f>A58</f>
-        <v>Team4</v>
+      <c r="F58" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -1354,9 +1381,8 @@
       <c r="E59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="1" t="str">
-        <f>A59</f>
-        <v>Team2</v>
+      <c r="F59" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G59" s="1"/>
     </row>
@@ -1368,9 +1394,8 @@
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="1" t="str">
-        <f>A60</f>
-        <v>Team3</v>
+      <c r="F60" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -1382,9 +1407,8 @@
       <c r="E61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="1" t="str">
-        <f>A61</f>
-        <v>Team1</v>
+      <c r="F61" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -1396,14 +1420,17 @@
       <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="1" t="str">
-        <f>A62</f>
-        <v>Team6</v>
+      <c r="F62" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G62" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A56:B56" xr:uid="{37C398C2-5125-334E-B811-9FC1287E4C1A}"/>
+  <autoFilter ref="A4:B4" xr:uid="{37C398C2-5125-334E-B811-9FC1287E4C1A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B10">
+      <sortCondition ref="B4:B10"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1414,7 +1441,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1467,12 +1494,11 @@
         <v>9</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>A5</f>
+        <f t="shared" ref="F5:F10" si="0">A5</f>
         <v>Team5</v>
       </c>
       <c r="G5" s="1">
-        <f>J2</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1484,12 +1510,11 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>Team4</v>
       </c>
       <c r="G6" s="1">
-        <f>J3</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1501,12 +1526,11 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>Team2</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G10" si="0">J4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1518,12 +1542,11 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>Team3</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1535,12 +1558,11 @@
         <v>13</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>A9</f>
+        <f t="shared" si="0"/>
         <v>Team1</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1552,12 +1574,11 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>Team6</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1611,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f>A18</f>
+        <f t="shared" ref="F18:F23" si="1">A18</f>
         <v>Team5</v>
       </c>
       <c r="G18" s="1">
@@ -1628,11 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>A19</f>
+        <f t="shared" si="1"/>
         <v>Team4</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19:G22" si="1">J3</f>
+        <f t="shared" ref="G19:G22" si="2">J3</f>
         <v>0</v>
       </c>
     </row>
@@ -1645,11 +1666,11 @@
         <v>11</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>A20</f>
+        <f t="shared" si="1"/>
         <v>Team2</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1662,11 +1683,11 @@
         <v>12</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>A21</f>
+        <f t="shared" si="1"/>
         <v>Team3</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1679,11 +1700,11 @@
         <v>13</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>A22</f>
+        <f t="shared" si="1"/>
         <v>Team1</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1696,7 +1717,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>A23</f>
+        <f t="shared" si="1"/>
         <v>Team6</v>
       </c>
       <c r="G23" s="1">
@@ -1755,7 +1776,7 @@
         <v>9</v>
       </c>
       <c r="F31" s="2" t="str">
-        <f>A31</f>
+        <f t="shared" ref="F31:F36" si="3">A31</f>
         <v>Team5</v>
       </c>
       <c r="G31" s="1">
@@ -1772,11 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>A32</f>
+        <f t="shared" si="3"/>
         <v>Team4</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" ref="G32:G36" si="2">J3</f>
+        <f t="shared" ref="G32:G36" si="4">J3</f>
         <v>0</v>
       </c>
     </row>
@@ -1789,11 +1810,11 @@
         <v>11</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>A33</f>
+        <f t="shared" si="3"/>
         <v>Team2</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1806,11 +1827,11 @@
         <v>12</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>A34</f>
+        <f t="shared" si="3"/>
         <v>Team3</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1823,11 +1844,11 @@
         <v>13</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>A35</f>
+        <f t="shared" si="3"/>
         <v>Team1</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1840,11 +1861,11 @@
         <v>14</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>A36</f>
+        <f t="shared" si="3"/>
         <v>Team6</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1858,7 +1879,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C20"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1897,8 +1918,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
+      <c r="A3" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B3">
         <f>VLOOKUP($A3,'Tag1'!$F$5:$G$10,2,FALSE)</f>
@@ -1920,26 +1941,26 @@
         <f>VLOOKUP($A3,'Tag1'!$F$56:$G$62,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="e">
         <f>VLOOKUP($A3,'Tag2'!$F$4:$G$10,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
+        <v>#N/A</v>
+      </c>
+      <c r="H3" t="e">
         <f>VLOOKUP($A3,'Tag2'!$F$17:$G$23,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="e">
         <f>VLOOKUP($A3,'Tag2'!$F$30:$G$36,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>SUM(B3:I3)</f>
-        <v>0</v>
+        <v>#N/A</v>
+      </c>
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J9" si="0">SUM(B3:I3)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
+      <c r="A4" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B4">
         <f>VLOOKUP($A4,'Tag1'!$F$5:$G$10,2,FALSE)</f>
@@ -1961,26 +1982,26 @@
         <f>VLOOKUP($A4,'Tag1'!$F$56:$G$62,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="e">
         <f>VLOOKUP($A4,'Tag2'!$F$4:$G$10,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" t="e">
         <f>VLOOKUP($A4,'Tag2'!$F$17:$G$23,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="e">
         <f>VLOOKUP($A4,'Tag2'!$F$30:$G$36,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>SUM(B4:I4)</f>
-        <v>0</v>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
+      <c r="A5" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="B5">
         <f>VLOOKUP($A5,'Tag1'!$F$5:$G$10,2,FALSE)</f>
@@ -2002,26 +2023,26 @@
         <f>VLOOKUP($A5,'Tag1'!$F$56:$G$62,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="e">
         <f>VLOOKUP($A5,'Tag2'!$F$4:$G$10,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H5">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" t="e">
         <f>VLOOKUP($A5,'Tag2'!$F$17:$G$23,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I5">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" t="e">
         <f>VLOOKUP($A5,'Tag2'!$F$30:$G$36,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>SUM(B5:I5)</f>
-        <v>0</v>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
+      <c r="A6" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="B6">
         <f>VLOOKUP($A6,'Tag1'!$F$5:$G$10,2,FALSE)</f>
@@ -2043,26 +2064,26 @@
         <f>VLOOKUP($A6,'Tag1'!$F$56:$G$62,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="e">
         <f>VLOOKUP($A6,'Tag2'!$F$4:$G$10,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H6">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="e">
         <f>VLOOKUP($A6,'Tag2'!$F$17:$G$23,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I6">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="e">
         <f>VLOOKUP($A6,'Tag2'!$F$30:$G$36,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>SUM(B6:I6)</f>
-        <v>0</v>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
+      <c r="A7" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="B7">
         <f>VLOOKUP($A7,'Tag1'!$F$5:$G$10,2,FALSE)</f>
@@ -2084,26 +2105,26 @@
         <f>VLOOKUP($A7,'Tag1'!$F$56:$G$62,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="e">
         <f>VLOOKUP($A7,'Tag2'!$F$4:$G$10,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H7">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="e">
         <f>VLOOKUP($A7,'Tag2'!$F$17:$G$23,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
         <f>VLOOKUP($A7,'Tag2'!$F$30:$G$36,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>SUM(B7:I7)</f>
-        <v>0</v>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
+      <c r="A8" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="B8">
         <f>VLOOKUP($A8,'Tag1'!$F$5:$G$10,2,FALSE)</f>
@@ -2125,59 +2146,59 @@
         <f>VLOOKUP($A8,'Tag1'!$F$56:$G$62,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="e">
         <f>VLOOKUP($A8,'Tag2'!$F$4:$G$10,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H8">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="e">
         <f>VLOOKUP($A8,'Tag2'!$F$17:$G$23,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I8">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="e">
         <f>VLOOKUP($A8,'Tag2'!$F$30:$G$36,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>SUM(B8:I8)</f>
-        <v>0</v>
+        <v>#N/A</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9">
-        <f>SUM(B3:B8)</f>
+        <f t="shared" ref="B9:I9" si="1">SUM(B3:B8)</f>
         <v>0</v>
       </c>
       <c r="C9">
-        <f>SUM(C3:C8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>SUM(D3:D8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUM(E3:E8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUM(F3:F8)</f>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f>SUM(G3:G8)</f>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f>SUM(H3:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>SUM(I3:I8)</f>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>SUM(B9:I9)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2201,17 +2222,17 @@
         <f>IF(F9=31,"CHECK","ATTENTION")</f>
         <v>ATTENTION</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" t="e">
         <f>IF(G9=46,"CHECK","ATTENTION")</f>
-        <v>ATTENTION</v>
-      </c>
-      <c r="H10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H10" t="e">
         <f>IF(H9=46,"CHECK","ATTENTION")</f>
-        <v>ATTENTION</v>
-      </c>
-      <c r="I10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I10" t="e">
         <f>IF(I9=46,"CHECK","ATTENTION")</f>
-        <v>ATTENTION</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2227,8 +2248,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
+      <c r="A15" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -2239,62 +2260,62 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>18</v>
+      <c r="A16" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:C20" si="0">VLOOKUP(A16,$A$2:$B$8,2,FALSE)</f>
+        <f t="shared" ref="C16:C20" si="2">VLOOKUP(A16,$A$2:$B$8,2,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
+      <c r="A17" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
+      <c r="A18" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>21</v>
+      <c r="A19" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>22</v>
+      <c r="A20" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2306,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07CBEDD-FA3F-954E-86B1-9170201CA7DD}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2326,78 +2347,151 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
+      <c r="A2" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(A2,Punkte_Spiele!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
+      <c r="A3" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(A3,Punkte_Spiele!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
+      <c r="A4" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(A4,Punkte_Spiele!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
+      <c r="A5" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(A5,Punkte_Spiele!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
+      <c r="A6" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6">
-        <f>VLOOKUP(A6,Punkte_Spiele!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>22</v>
+      <c r="A7" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7">
-        <f>VLOOKUP(A7,Punkte_Spiele!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16515D61-D406-2841-955C-ACA8BB946360}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trainingslager.xlsx
+++ b/trainingslager.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabs/Desktop/Fabian/Fußball/SCSR/Trainingslager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495CCAF2-5BBE-154E-89D8-3A4F925DA5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BD4EFE-3597-0642-9632-AAA22AA575C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17440" activeTab="5" xr2:uid="{BE33E2B0-6F17-8A4C-A4AB-1B42C4A25253}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" activeTab="5" xr2:uid="{BE33E2B0-6F17-8A4C-A4AB-1B42C4A25253}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="59">
   <si>
     <t>Bewerb1</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>Team Chetti</t>
+  </si>
+  <si>
+    <t>Team Grabi</t>
+  </si>
+  <si>
+    <t>Backbacking</t>
+  </si>
+  <si>
+    <t>Ball hochhalten</t>
   </si>
 </sst>
 </file>
@@ -2327,13 +2336,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07CBEDD-FA3F-954E-86B1-9170201CA7DD}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2351,7 +2363,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -2362,7 +2374,7 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -2370,10 +2382,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -2384,7 +2396,7 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -2395,7 +2407,7 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -2406,7 +2418,7 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2417,7 +2429,7 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -2428,7 +2440,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2436,10 +2448,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2450,7 +2462,7 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2461,7 +2473,7 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2472,10 +2484,208 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
